--- a/PredLig/src/Documentation/Results and Diferences_min-edges3.xlsx
+++ b/PredLig/src/Documentation/Results and Diferences_min-edges3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18720" windowHeight="7455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14025" windowHeight="4425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="First Table" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,13 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="5" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="47">
   <si>
     <t>Authors</t>
   </si>
@@ -151,46 +152,28 @@
     <t xml:space="preserve">AUTHORS CORE = 3 </t>
   </si>
   <si>
-    <t>Time Score (Total Success) FC 0.8 &amp; TC = T0_</t>
-  </si>
-  <si>
-    <t>Time Score (%) FC 0.8 &amp; TC = T0_</t>
-  </si>
-  <si>
-    <t>Time Score (Total Success) FC 0.5 &amp; TC = T0_</t>
-  </si>
-  <si>
-    <t>Time Score (%) FC 0.5 &amp; TC = T0_</t>
-  </si>
-  <si>
-    <t>Time Score (Total Success) FC 0.2 &amp; TC = T0_</t>
-  </si>
-  <si>
-    <t>Time Score (%) FC 0.2 &amp; TC = T0_</t>
-  </si>
-  <si>
-    <t>Time Score (Total Success) FC 0.8 &amp; TC = T1_</t>
-  </si>
-  <si>
-    <t>Time Score (%) FC 0.8 &amp; TC = T1_</t>
-  </si>
-  <si>
-    <t>Time Score (Total Success) FC 0.5 &amp; TC = T1_</t>
-  </si>
-  <si>
-    <t>Time Score (%) FC 0.5 &amp; TC = T1_</t>
-  </si>
-  <si>
-    <t>Time Score (Total Success) FC 0.1 &amp; TC = T1_</t>
-  </si>
-  <si>
-    <t>Time Score (%) FC 0.1 &amp; TC = T1_</t>
+    <t>Time Score DF 0.8 (Total Success)</t>
+  </si>
+  <si>
+    <t>Time Score DF 0.8 (%)</t>
+  </si>
+  <si>
+    <t>Time Score DF 0.5 (Total Success)</t>
+  </si>
+  <si>
+    <t>Time Score DF 0.5 (%)</t>
+  </si>
+  <si>
+    <t>Time Score DF 0.2 (Total Success)</t>
+  </si>
+  <si>
+    <t>Time Score DF 0.2 (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -200,7 +183,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;???_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;???_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +433,16 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -471,20 +464,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -525,9 +508,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -565,7 +548,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -599,7 +582,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -634,10 +616,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -810,14 +791,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
@@ -826,20 +807,20 @@
     <col min="19" max="19" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:12" ht="32.25" customHeight="1">
+      <c r="B2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="2:12">
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
@@ -862,7 +843,7 @@
       </c>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12">
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
@@ -886,7 +867,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12">
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
@@ -910,7 +891,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -934,7 +915,7 @@
         <v>3294</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12">
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -958,7 +939,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -982,7 +963,7 @@
         <v>5751</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12">
       <c r="B9" s="3"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -992,19 +973,19 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="33" t="s">
+    <row r="10" spans="2:12" ht="36" customHeight="1">
+      <c r="B10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="3"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2" t="s">
@@ -1026,7 +1007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12">
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
@@ -1050,7 +1031,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12">
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
@@ -1074,7 +1055,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12">
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
@@ -1098,7 +1079,7 @@
         <v>3294</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12">
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
@@ -1122,7 +1103,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12">
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -1146,7 +1127,7 @@
         <v>5751</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1156,19 +1137,19 @@
       <c r="H17" s="1"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="33" t="s">
+    <row r="18" spans="2:12" ht="24.75" customHeight="1">
+      <c r="B18" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="2" t="s">
@@ -1191,7 +1172,7 @@
       </c>
       <c r="L19" s="16"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
@@ -1201,7 +1182,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12">
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
@@ -1231,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="B22" s="10" t="s">
         <v>6</v>
       </c>
@@ -1261,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="B23" s="8" t="s">
         <v>7</v>
       </c>
@@ -1291,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="B24" s="17" t="s">
         <v>8</v>
       </c>
@@ -1321,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="15.75" thickBot="1">
       <c r="B25" s="5" t="s">
         <v>9</v>
       </c>
@@ -1363,50 +1344,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="44.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="36" t="s">
+    <row r="2" spans="3:8">
+      <c r="C2" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+    </row>
+    <row r="4" spans="3:8">
       <c r="C4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="30" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -1414,15 +1395,15 @@
         <f xml:space="preserve"> ( 'First Table'!I12 / ( ( ('First Table'!G12 * ('First Table'!G12 - 1))/2) - 'First Table'!H12) *100)</f>
         <v>0.340901343151292</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="31">
         <f xml:space="preserve"> ( 'First Table'!I13 / ( ( ('First Table'!G13 * ('First Table'!G13 - 1))/2) - 'First Table'!H13)*100)</f>
         <v>0.15309026691715447</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="36">
         <f xml:space="preserve"> ( 'First Table'!I14 / ( ( ('First Table'!G14 * ('First Table'!G14 - 1))/2) - 'First Table'!H14)*100)</f>
         <v>0.20658500684540176</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="31">
         <f xml:space="preserve"> ( 'First Table'!I15 / ( ( ('First Table'!G15 * ('First Table'!G15 - 1))/2) - 'First Table'!H15)*100 )</f>
         <v>0.1469688004406508</v>
       </c>
@@ -1431,27 +1412,27 @@
         <v>0.47473918649630759</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8">
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6">
         <v>38</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="32">
         <v>103</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="37">
         <v>176</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="32">
         <v>73</v>
       </c>
       <c r="H6">
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -1459,15 +1440,15 @@
         <f>((D6/ 'First Table'!I12  )*100)/D5</f>
         <v>27.8673</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="33">
         <f>((E6/   'First Table'!I13    )*100)/E5</f>
         <v>42.69071526578886</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="38">
         <f>((F6/   'First Table'!I14    )*100)/F5</f>
         <v>25.863677367434825</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="33">
         <f>((G6/   'First Table'!I15    )*100)/G5</f>
         <v>43.19165746691872</v>
       </c>
@@ -1476,27 +1457,27 @@
         <v>18.569897666750389</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8">
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8">
         <v>31</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="32">
         <v>117</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="37">
         <v>196</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="32">
         <v>74</v>
       </c>
       <c r="H8">
         <v>553</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:8">
       <c r="C9" t="s">
         <v>23</v>
       </c>
@@ -1504,15 +1485,15 @@
         <f>((D8/ 'First Table'!I12  )*100)/D5</f>
         <v>22.73385</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="33">
         <f>((E8/   'First Table'!I13    )*100)/E7</f>
         <v>0.17389865271171917</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="38">
         <f>((F8/   'First Table'!I14    )*100)/F5</f>
         <v>28.802731613734235</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="33">
         <f>((G8/ 'First Table'!I15  )*100)/G5</f>
         <v>43.78332400756144</v>
       </c>
@@ -1521,27 +1502,27 @@
         <v>20.254740453082768</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8">
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10">
         <v>29</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="32">
         <v>111</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="37">
         <v>195</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="32">
         <v>75</v>
       </c>
       <c r="H10">
         <v>453</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:8">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -1549,15 +1530,15 @@
         <f>((D10/ 'First Table'!I12  )*100)/D5</f>
         <v>21.267149999999997</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="33">
         <f>((E10/   'First Table'!I13    )*100)/E5</f>
         <v>46.006498975753047</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="38">
         <f>((F10/   'First Table'!I14    )*100)/F5</f>
         <v>28.655778901419264</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="33">
         <f>((G10/ 'First Table'!I15  )*100)/G5</f>
         <v>44.374990548204153</v>
       </c>
@@ -1566,27 +1547,27 @@
         <v>16.592038743664546</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:8">
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12">
         <v>8</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="32">
         <v>19</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="37">
         <v>101</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="32">
         <v>9</v>
       </c>
       <c r="H12">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:8">
       <c r="C13" t="s">
         <v>28</v>
       </c>
@@ -1594,15 +1575,15 @@
         <f>((D12/ 'First Table'!I12  )*100)/D5</f>
         <v>5.8668000000000005</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="33">
         <f>((E12/   'First Table'!I13    )*100)/E5</f>
         <v>7.8749863111649363</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="38">
         <f>((F12/   'First Table'!I14    )*100)/F5</f>
         <v>14.842223943812028</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="33">
         <f>((G12/ 'First Table'!I15  )*100)/G5</f>
         <v>5.3249988657844991</v>
       </c>
@@ -1611,27 +1592,27 @@
         <v>4.7615122222436899</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8">
       <c r="C14" t="s">
         <v>41</v>
       </c>
       <c r="D14">
         <v>36</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="32">
         <v>92</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="37">
         <v>168</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="32">
         <v>68</v>
       </c>
       <c r="H14">
         <v>446</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8">
       <c r="C15" t="s">
         <v>42</v>
       </c>
@@ -1639,15 +1620,15 @@
         <f>((D14/ 'First Table'!I12  )*100)/D5</f>
         <v>26.400600000000001</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="33">
         <f>((E14/   'First Table'!I13   )*100)/E5</f>
         <v>38.131512664588115</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="38">
         <f>((F14/   'First Table'!I14    )*100)/F5</f>
         <v>24.688055668915059</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="33">
         <f>((G14/ 'First Table'!I15  )*100)/G5</f>
         <v>40.233324763705099</v>
       </c>
@@ -1656,27 +1637,27 @@
         <v>16.335649624005274</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:8">
       <c r="C16" t="s">
         <v>43</v>
       </c>
       <c r="D16">
         <v>37</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="32">
         <v>102</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="37">
         <v>173</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="32">
         <v>81</v>
       </c>
       <c r="H16">
         <v>479</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8">
       <c r="C17" t="s">
         <v>44</v>
       </c>
@@ -1684,15 +1665,15 @@
         <f>((D16/ 'First Table'!I12  )*100)/D5</f>
         <v>27.133950000000002</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="34">
         <f>((E16/   'First Table'!I13   )*100)/E5</f>
         <v>42.276242302043343</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="39">
         <f>((F16/   'First Table'!I14    )*100)/F5</f>
         <v>25.42281923048991</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="34">
         <f>((G16/ 'First Table'!I15  )*100)/G5</f>
         <v>47.924989792060494</v>
       </c>
@@ -1701,27 +1682,27 @@
         <v>17.544341188113286</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8">
       <c r="C18" t="s">
         <v>45</v>
       </c>
       <c r="D18">
         <v>39</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="32">
         <v>102</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="37">
         <v>177</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="32">
         <v>87</v>
       </c>
       <c r="H18">
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8">
       <c r="C19" t="s">
         <v>46</v>
       </c>
@@ -1729,155 +1710,20 @@
         <f>((D18/ 'First Table'!I12  )*100)/D5</f>
         <v>28.600650000000002</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="34">
         <f>((E18/   'First Table'!I13   )*100)/E5</f>
         <v>42.276242302043343</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="39">
         <f>((F18/   'First Table'!I14    )*100)/F5</f>
         <v>26.010630079749795</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="34">
         <f>((G18/ 'First Table'!I15  )*100)/G5</f>
         <v>51.474989035916821</v>
       </c>
       <c r="H19" s="29">
         <f>((H18/   'First Table'!I16    )*100)/H5</f>
-        <v>17.94723837614929</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20">
-        <v>36</v>
-      </c>
-      <c r="E20" s="39">
-        <v>92</v>
-      </c>
-      <c r="F20" s="44">
-        <v>168</v>
-      </c>
-      <c r="G20" s="39">
-        <v>68</v>
-      </c>
-      <c r="H20">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="29">
-        <f>((D20/ 'First Table'!I12  )*100)/D5</f>
-        <v>26.400600000000001</v>
-      </c>
-      <c r="E21" s="41">
-        <f>((E20/   'First Table'!I13   )*100)/E5</f>
-        <v>38.131512664588115</v>
-      </c>
-      <c r="F21" s="46">
-        <f>((F20/   'First Table'!I14    )*100)/F5</f>
-        <v>24.688055668915059</v>
-      </c>
-      <c r="G21" s="41">
-        <f>((G20/ 'First Table'!I15  )*100)/G5</f>
-        <v>40.233324763705099</v>
-      </c>
-      <c r="H21" s="29">
-        <f>((H20/   'First Table'!I16    )*100)/H5</f>
-        <v>16.335649624005274</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22">
-        <v>37</v>
-      </c>
-      <c r="E22" s="39">
-        <v>102</v>
-      </c>
-      <c r="F22" s="44">
-        <v>173</v>
-      </c>
-      <c r="G22" s="39">
-        <v>81</v>
-      </c>
-      <c r="H22">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="29">
-        <f>((D22/ 'First Table'!I12  )*100)/D5</f>
-        <v>27.133950000000002</v>
-      </c>
-      <c r="E23" s="41">
-        <f>((E22/   'First Table'!I13   )*100)/E5</f>
-        <v>42.276242302043343</v>
-      </c>
-      <c r="F23" s="46">
-        <f>((F22/   'First Table'!I14    )*100)/F5</f>
-        <v>25.42281923048991</v>
-      </c>
-      <c r="G23" s="41">
-        <f>((G22/ 'First Table'!I15  )*100)/G5</f>
-        <v>47.924989792060494</v>
-      </c>
-      <c r="H23" s="29">
-        <f>((H22/   'First Table'!I16    )*100)/H5</f>
-        <v>17.544341188113286</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24">
-        <v>39</v>
-      </c>
-      <c r="E24" s="39">
-        <v>121</v>
-      </c>
-      <c r="F24" s="44">
-        <v>178</v>
-      </c>
-      <c r="G24" s="39">
-        <v>86</v>
-      </c>
-      <c r="H24">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="29">
-        <f>((D24/ 'First Table'!I12  )*100)/D5</f>
-        <v>28.600650000000002</v>
-      </c>
-      <c r="E25" s="41">
-        <f>((E24/   'First Table'!I13   )*100)/E5</f>
-        <v>50.151228613208268</v>
-      </c>
-      <c r="F25" s="46">
-        <f>((F24/   'First Table'!I14    )*100)/F5</f>
-        <v>26.157582792064762</v>
-      </c>
-      <c r="G25" s="41">
-        <f>((G24/ 'First Table'!I15  )*100)/G5</f>
-        <v>50.883322495274108</v>
-      </c>
-      <c r="H25" s="29">
-        <f>((H24/   'First Table'!I16    )*100)/H5</f>
         <v>17.94723837614929</v>
       </c>
     </row>
@@ -1891,14 +1737,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:J9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -1909,7 +1755,7 @@
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
@@ -1931,7 +1777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10">
       <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
@@ -1964,7 +1810,7 @@
         <v>27.133950000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10">
       <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
@@ -1997,7 +1843,7 @@
         <v>46.835444903244095</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10">
       <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
@@ -2030,7 +1876,7 @@
         <v>26.892346353639617</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
@@ -2063,7 +1909,7 @@
         <v>40.824991304347826</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10">
       <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
@@ -2103,14 +1949,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:J9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -2121,7 +1967,7 @@
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
@@ -2143,7 +1989,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10">
       <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
@@ -2176,7 +2022,7 @@
         <v>31.534050000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10">
       <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
@@ -2209,7 +2055,7 @@
         <v>50.151228613208268</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10">
       <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
@@ -2242,7 +2088,7 @@
         <v>33.211312983183355</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
@@ -2275,7 +2121,7 @@
         <v>54.433321739130434</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10">
       <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
@@ -2315,14 +2161,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:J9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -2333,7 +2179,7 @@
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
@@ -2355,7 +2201,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10">
       <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
@@ -2388,7 +2234,7 @@
         <v>31.534050000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10">
       <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
@@ -2421,7 +2267,7 @@
         <v>50.151228613208268</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10">
       <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
@@ -2454,7 +2300,7 @@
         <v>27.627109915214469</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
@@ -2487,7 +2333,7 @@
         <v>42.008324385633273</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10">
       <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
@@ -2527,14 +2373,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:J9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -2545,7 +2391,7 @@
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
@@ -2567,7 +2413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10">
       <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
@@ -2600,7 +2446,7 @@
         <v>7.3334999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10">
       <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
@@ -2633,7 +2479,7 @@
         <v>7.460513347419413</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10">
       <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
@@ -2666,7 +2512,7 @@
         <v>15.283082080756941</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
@@ -2699,7 +2545,7 @@
         <v>5.9166654064272208</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10">
       <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
@@ -2739,12 +2585,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PredLig/src/Documentation/Results and Diferences_min-edges3.xlsx
+++ b/PredLig/src/Documentation/Results and Diferences_min-edges3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14025" windowHeight="4425" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14025" windowHeight="4425"/>
   </bookViews>
   <sheets>
     <sheet name="First Table" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:N10"/>
 </workbook>
 </file>
 
@@ -794,7 +794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -1347,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
